--- a/DS projects/resources/Excel_sheets/Chemistry_marklist.xlsx
+++ b/DS projects/resources/Excel_sheets/Chemistry_marklist.xlsx
@@ -28,220 +28,220 @@
     <t>Combination</t>
   </si>
   <si>
-    <t>Thrusha.S.Shetty</t>
-  </si>
-  <si>
-    <t>Pratheek</t>
-  </si>
-  <si>
-    <t>Charan.K</t>
-  </si>
-  <si>
-    <t>Preetam</t>
-  </si>
-  <si>
-    <t>ShravanKumar</t>
-  </si>
-  <si>
-    <t>Varunsdevadiga</t>
+    <t>thrusha.s.shetty</t>
+  </si>
+  <si>
+    <t>pratheek</t>
+  </si>
+  <si>
+    <t>charan.k</t>
+  </si>
+  <si>
+    <t>preetam</t>
+  </si>
+  <si>
+    <t>shravankumar</t>
+  </si>
+  <si>
+    <t>varunsdevadiga</t>
   </si>
   <si>
     <t>shravanacharya</t>
   </si>
   <si>
-    <t>Shravanibhat</t>
-  </si>
-  <si>
-    <t>Mohdirshad</t>
-  </si>
-  <si>
-    <t>TSGanesh</t>
-  </si>
-  <si>
-    <t>Ishrathisak</t>
-  </si>
-  <si>
-    <t>Mohammedirfan</t>
-  </si>
-  <si>
-    <t>Chinmayikb</t>
-  </si>
-  <si>
-    <t>Krithisacharya</t>
-  </si>
-  <si>
-    <t>Shwetha.P.Acharya</t>
-  </si>
-  <si>
-    <t>Abhishek.s.shet</t>
-  </si>
-  <si>
-    <t>Y.Shivani</t>
-  </si>
-  <si>
-    <t>GagankashyapHs</t>
-  </si>
-  <si>
-    <t>ShravanHN</t>
-  </si>
-  <si>
-    <t>Raghavendra.S.Naik</t>
-  </si>
-  <si>
-    <t>Sandeshjoshi</t>
-  </si>
-  <si>
-    <t>Hemanthnaik</t>
-  </si>
-  <si>
-    <t>Pannagajm</t>
-  </si>
-  <si>
-    <t>Shreyas</t>
-  </si>
-  <si>
-    <t>Adishnaik</t>
-  </si>
-  <si>
-    <t>Skandakumar</t>
-  </si>
-  <si>
-    <t>HaleemaMashitha</t>
-  </si>
-  <si>
-    <t>RoshniD</t>
-  </si>
-  <si>
-    <t>NayanaHiremath</t>
-  </si>
-  <si>
-    <t>SaaniyaSaleem</t>
-  </si>
-  <si>
-    <t>VarshithG</t>
-  </si>
-  <si>
-    <t>Jeevan.s.r</t>
-  </si>
-  <si>
-    <t>Bhoomika</t>
-  </si>
-  <si>
-    <t>Prasheel.R.Devadiga</t>
-  </si>
-  <si>
-    <t>Anil</t>
-  </si>
-  <si>
-    <t>Chaitanya</t>
-  </si>
-  <si>
-    <t>Nehashetty</t>
-  </si>
-  <si>
-    <t>Vignesh</t>
-  </si>
-  <si>
-    <t>Sahana.R</t>
-  </si>
-  <si>
-    <t>Shamitha</t>
-  </si>
-  <si>
-    <t>ChandanaNN</t>
-  </si>
-  <si>
-    <t>MOKSHITHLPAVAN</t>
-  </si>
-  <si>
-    <t>Shraddhayeri</t>
-  </si>
-  <si>
-    <t>Rajathjpadubidri</t>
-  </si>
-  <si>
-    <t>RoshanDenzielAmanna</t>
-  </si>
-  <si>
-    <t>PramodVNaik</t>
-  </si>
-  <si>
-    <t>Anwar.L.Vastad.</t>
-  </si>
-  <si>
-    <t>JerlynDsouza</t>
-  </si>
-  <si>
-    <t>AmanMKanchan</t>
-  </si>
-  <si>
-    <t>NiharikaV</t>
-  </si>
-  <si>
-    <t>LohithGowda.s</t>
-  </si>
-  <si>
-    <t>GruMadhvaH</t>
-  </si>
-  <si>
-    <t>MadanG.K</t>
-  </si>
-  <si>
-    <t>Likithaprasad</t>
-  </si>
-  <si>
-    <t>LAXMANVASHISHTAPUJARI</t>
-  </si>
-  <si>
-    <t>UjwalBsangapur</t>
-  </si>
-  <si>
-    <t>MoolyaChaitraSatish</t>
-  </si>
-  <si>
-    <t>MahammedSinan</t>
-  </si>
-  <si>
-    <t>PratheekshaSDevadiga</t>
-  </si>
-  <si>
-    <t>Harshanaik</t>
-  </si>
-  <si>
-    <t>Sujal.A.M</t>
-  </si>
-  <si>
-    <t>Prajwalgj</t>
-  </si>
-  <si>
-    <t>Poojadmoolya</t>
-  </si>
-  <si>
-    <t>DanicaAliciaMenezes</t>
-  </si>
-  <si>
-    <t>Naveen</t>
-  </si>
-  <si>
-    <t>Deekshaspoojary</t>
-  </si>
-  <si>
-    <t>Arya</t>
-  </si>
-  <si>
-    <t>Shreevidya</t>
-  </si>
-  <si>
-    <t>Diya</t>
-  </si>
-  <si>
-    <t>Veeksha</t>
-  </si>
-  <si>
-    <t>HarshitaMJain</t>
-  </si>
-  <si>
-    <t>Udithkumar</t>
+    <t>shravanibhat</t>
+  </si>
+  <si>
+    <t>mohdirshad</t>
+  </si>
+  <si>
+    <t>tsganesh</t>
+  </si>
+  <si>
+    <t>ishrathisak</t>
+  </si>
+  <si>
+    <t>mohammedirfan</t>
+  </si>
+  <si>
+    <t>chinmayikb</t>
+  </si>
+  <si>
+    <t>krithisacharya</t>
+  </si>
+  <si>
+    <t>shwetha.p.acharya</t>
+  </si>
+  <si>
+    <t>abhishek.s.shet</t>
+  </si>
+  <si>
+    <t>y.shivani</t>
+  </si>
+  <si>
+    <t>gagankashyaphs</t>
+  </si>
+  <si>
+    <t>shravanhn</t>
+  </si>
+  <si>
+    <t>raghavendra.s.naik</t>
+  </si>
+  <si>
+    <t>sandeshjoshi</t>
+  </si>
+  <si>
+    <t>hemanthnaik</t>
+  </si>
+  <si>
+    <t>pannagajm</t>
+  </si>
+  <si>
+    <t>shreyas</t>
+  </si>
+  <si>
+    <t>adishnaik</t>
+  </si>
+  <si>
+    <t>skandakumar</t>
+  </si>
+  <si>
+    <t>haleemamashitha</t>
+  </si>
+  <si>
+    <t>roshnid</t>
+  </si>
+  <si>
+    <t>nayanahiremath</t>
+  </si>
+  <si>
+    <t>saaniyasaleem</t>
+  </si>
+  <si>
+    <t>varshithg</t>
+  </si>
+  <si>
+    <t>jeevan.s.r</t>
+  </si>
+  <si>
+    <t>bhoomika</t>
+  </si>
+  <si>
+    <t>prasheel.r.devadiga</t>
+  </si>
+  <si>
+    <t>anil</t>
+  </si>
+  <si>
+    <t>chaitanya</t>
+  </si>
+  <si>
+    <t>nehashetty</t>
+  </si>
+  <si>
+    <t>vignesh</t>
+  </si>
+  <si>
+    <t>sahana.r</t>
+  </si>
+  <si>
+    <t>shamitha</t>
+  </si>
+  <si>
+    <t>chandanann</t>
+  </si>
+  <si>
+    <t>mokshithlpavan</t>
+  </si>
+  <si>
+    <t>shraddhayeri</t>
+  </si>
+  <si>
+    <t>rajathjpadubidri</t>
+  </si>
+  <si>
+    <t>roshandenzielamanna</t>
+  </si>
+  <si>
+    <t>pramodvnaik</t>
+  </si>
+  <si>
+    <t>anwar.l.vastad.</t>
+  </si>
+  <si>
+    <t>jerlyndsouza</t>
+  </si>
+  <si>
+    <t>amanmkanchan</t>
+  </si>
+  <si>
+    <t>niharikav</t>
+  </si>
+  <si>
+    <t>lohithgowda.s</t>
+  </si>
+  <si>
+    <t>grumadhvah</t>
+  </si>
+  <si>
+    <t>madang.k</t>
+  </si>
+  <si>
+    <t>likithaprasad</t>
+  </si>
+  <si>
+    <t>laxmanvashishtapujari</t>
+  </si>
+  <si>
+    <t>ujwalbsangapur</t>
+  </si>
+  <si>
+    <t>moolyachaitrasatish</t>
+  </si>
+  <si>
+    <t>mahammedsinan</t>
+  </si>
+  <si>
+    <t>pratheekshasdevadiga</t>
+  </si>
+  <si>
+    <t>harshanaik</t>
+  </si>
+  <si>
+    <t>sujal.a.m</t>
+  </si>
+  <si>
+    <t>prajwalgj</t>
+  </si>
+  <si>
+    <t>poojadmoolya</t>
+  </si>
+  <si>
+    <t>danicaaliciamenezes</t>
+  </si>
+  <si>
+    <t>naveen</t>
+  </si>
+  <si>
+    <t>deekshaspoojary</t>
+  </si>
+  <si>
+    <t>arya</t>
+  </si>
+  <si>
+    <t>shreevidya</t>
+  </si>
+  <si>
+    <t>diya</t>
+  </si>
+  <si>
+    <t>veeksha</t>
+  </si>
+  <si>
+    <t>harshitamjain</t>
+  </si>
+  <si>
+    <t>udithkumar</t>
   </si>
   <si>
     <t>adarshshenoy</t>
@@ -250,346 +250,346 @@
     <t>shashidharvishwakarma</t>
   </si>
   <si>
-    <t>YASHASH.M.K</t>
-  </si>
-  <si>
-    <t>ViolaMendonca</t>
-  </si>
-  <si>
-    <t>Malapriya</t>
-  </si>
-  <si>
-    <t>AditiGNavada</t>
-  </si>
-  <si>
-    <t>Seema</t>
-  </si>
-  <si>
-    <t>Shashankkbasur</t>
-  </si>
-  <si>
-    <t>Yashaswini.Annoji</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>Likhith</t>
-  </si>
-  <si>
-    <t>NishaSD</t>
-  </si>
-  <si>
-    <t>BharatkumarUH</t>
-  </si>
-  <si>
-    <t>Sumanthks</t>
-  </si>
-  <si>
-    <t>Pradyumna</t>
-  </si>
-  <si>
-    <t>MahimaShetty</t>
-  </si>
-  <si>
-    <t>SanjanaGunaga</t>
-  </si>
-  <si>
-    <t>SpoorthiGhiwari</t>
-  </si>
-  <si>
-    <t>MeghaShettygarthi</t>
-  </si>
-  <si>
-    <t>Deeksha</t>
-  </si>
-  <si>
-    <t>Deekshithacharya</t>
-  </si>
-  <si>
-    <t>Swaraj</t>
-  </si>
-  <si>
-    <t>Spoorthi</t>
-  </si>
-  <si>
-    <t>AyishaAfeefa</t>
-  </si>
-  <si>
-    <t>Afiza.A</t>
-  </si>
-  <si>
-    <t>Sannidhi</t>
-  </si>
-  <si>
-    <t>MohanSR</t>
-  </si>
-  <si>
-    <t>Chiraag.M.M</t>
-  </si>
-  <si>
-    <t>Shalmali</t>
-  </si>
-  <si>
-    <t>SnehaSPrabhu</t>
-  </si>
-  <si>
-    <t>Tejaswirshetty</t>
-  </si>
-  <si>
-    <t>TejaswiniBhat</t>
-  </si>
-  <si>
-    <t>Ananya</t>
-  </si>
-  <si>
-    <t>NamrathaSShetty</t>
-  </si>
-  <si>
-    <t>SanjayKU</t>
-  </si>
-  <si>
-    <t>AnshulA.Salian</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
-    <t>Yashsaanvi.R</t>
-  </si>
-  <si>
-    <t>ArunRL</t>
-  </si>
-  <si>
-    <t>AmrutaSNatikar</t>
-  </si>
-  <si>
-    <t>VikranthraoS.B</t>
-  </si>
-  <si>
-    <t>Siddharth</t>
-  </si>
-  <si>
-    <t>ShrustiAGhiwari</t>
-  </si>
-  <si>
-    <t>ShreekumarMG</t>
-  </si>
-  <si>
-    <t>KshamaShetty</t>
-  </si>
-  <si>
-    <t>Preksha</t>
-  </si>
-  <si>
-    <t>Karunya</t>
-  </si>
-  <si>
-    <t>MadhuSPatil</t>
-  </si>
-  <si>
-    <t>ChinmayiBhat</t>
+    <t>yashash.m.k</t>
+  </si>
+  <si>
+    <t>violamendonca</t>
+  </si>
+  <si>
+    <t>malapriya</t>
+  </si>
+  <si>
+    <t>aditignavada</t>
+  </si>
+  <si>
+    <t>seema</t>
+  </si>
+  <si>
+    <t>shashankkbasur</t>
+  </si>
+  <si>
+    <t>yashaswini.annoji</t>
+  </si>
+  <si>
+    <t>sneha</t>
+  </si>
+  <si>
+    <t>likhith</t>
+  </si>
+  <si>
+    <t>nishasd</t>
+  </si>
+  <si>
+    <t>bharatkumaruh</t>
+  </si>
+  <si>
+    <t>sumanthks</t>
+  </si>
+  <si>
+    <t>pradyumna</t>
+  </si>
+  <si>
+    <t>mahimashetty</t>
+  </si>
+  <si>
+    <t>sanjanagunaga</t>
+  </si>
+  <si>
+    <t>spoorthighiwari</t>
+  </si>
+  <si>
+    <t>meghashettygarthi</t>
+  </si>
+  <si>
+    <t>deeksha</t>
+  </si>
+  <si>
+    <t>deekshithacharya</t>
+  </si>
+  <si>
+    <t>swaraj</t>
+  </si>
+  <si>
+    <t>spoorthi</t>
+  </si>
+  <si>
+    <t>ayishaafeefa</t>
+  </si>
+  <si>
+    <t>afiza.a</t>
+  </si>
+  <si>
+    <t>sannidhi</t>
+  </si>
+  <si>
+    <t>mohansr</t>
+  </si>
+  <si>
+    <t>chiraag.m.m</t>
+  </si>
+  <si>
+    <t>shalmali</t>
+  </si>
+  <si>
+    <t>snehasprabhu</t>
+  </si>
+  <si>
+    <t>tejaswirshetty</t>
+  </si>
+  <si>
+    <t>tejaswinibhat</t>
+  </si>
+  <si>
+    <t>ananya</t>
+  </si>
+  <si>
+    <t>namrathasshetty</t>
+  </si>
+  <si>
+    <t>sanjayku</t>
+  </si>
+  <si>
+    <t>anshula.salian</t>
+  </si>
+  <si>
+    <t>deepak</t>
+  </si>
+  <si>
+    <t>yashsaanvi.r</t>
+  </si>
+  <si>
+    <t>arunrl</t>
+  </si>
+  <si>
+    <t>amrutasnatikar</t>
+  </si>
+  <si>
+    <t>vikranthraos.b</t>
+  </si>
+  <si>
+    <t>siddharth</t>
+  </si>
+  <si>
+    <t>shrustiaghiwari</t>
+  </si>
+  <si>
+    <t>shreekumarmg</t>
+  </si>
+  <si>
+    <t>kshamashetty</t>
+  </si>
+  <si>
+    <t>preksha</t>
+  </si>
+  <si>
+    <t>karunya</t>
+  </si>
+  <si>
+    <t>madhuspatil</t>
+  </si>
+  <si>
+    <t>chinmayibhat</t>
   </si>
   <si>
     <t>rahul</t>
   </si>
   <si>
-    <t>Rajkiran</t>
-  </si>
-  <si>
-    <t>SambramAcharya</t>
-  </si>
-  <si>
-    <t>Yashaswirshetty</t>
-  </si>
-  <si>
-    <t>Vinit</t>
-  </si>
-  <si>
-    <t>Sinchana</t>
-  </si>
-  <si>
-    <t>PramodShenoy</t>
-  </si>
-  <si>
-    <t>Madhusushankp</t>
-  </si>
-  <si>
-    <t>RuchithaPrabhu</t>
-  </si>
-  <si>
-    <t>Akshaybhargav</t>
-  </si>
-  <si>
-    <t>AniruddhaSalvankar</t>
-  </si>
-  <si>
-    <t>Yuktha.u</t>
-  </si>
-  <si>
-    <t>Tejaswininaik</t>
-  </si>
-  <si>
-    <t>GreeshmaShettigar</t>
+    <t>rajkiran</t>
+  </si>
+  <si>
+    <t>sambramacharya</t>
+  </si>
+  <si>
+    <t>yashaswirshetty</t>
+  </si>
+  <si>
+    <t>vinit</t>
+  </si>
+  <si>
+    <t>sinchana</t>
+  </si>
+  <si>
+    <t>pramodshenoy</t>
+  </si>
+  <si>
+    <t>madhusushankp</t>
+  </si>
+  <si>
+    <t>ruchithaprabhu</t>
+  </si>
+  <si>
+    <t>akshaybhargav</t>
+  </si>
+  <si>
+    <t>aniruddhasalvankar</t>
+  </si>
+  <si>
+    <t>yuktha.u</t>
+  </si>
+  <si>
+    <t>tejaswininaik</t>
+  </si>
+  <si>
+    <t>greeshmashettigar</t>
   </si>
   <si>
     <t>vinayakvroogi</t>
   </si>
   <si>
-    <t>Sharan</t>
-  </si>
-  <si>
-    <t>SrishtiSShetty</t>
-  </si>
-  <si>
-    <t>AMRITHA.K.POOJARY</t>
-  </si>
-  <si>
-    <t>MohammedMuzamil</t>
-  </si>
-  <si>
-    <t>Shreyaspoojary</t>
-  </si>
-  <si>
-    <t>Adyan.Kulal</t>
-  </si>
-  <si>
-    <t>Deepakcv</t>
-  </si>
-  <si>
-    <t>Nisargampatil</t>
-  </si>
-  <si>
-    <t>ShravanBangera</t>
-  </si>
-  <si>
-    <t>RifaAysha</t>
-  </si>
-  <si>
-    <t>Lenwickmathais</t>
-  </si>
-  <si>
-    <t>Kumara</t>
-  </si>
-  <si>
-    <t>ChetanPatil</t>
-  </si>
-  <si>
-    <t>Raksha</t>
-  </si>
-  <si>
-    <t>MSAYEEMAHMED</t>
+    <t>sharan</t>
+  </si>
+  <si>
+    <t>srishtisshetty</t>
+  </si>
+  <si>
+    <t>amritha.k.poojary</t>
+  </si>
+  <si>
+    <t>mohammedmuzamil</t>
+  </si>
+  <si>
+    <t>shreyaspoojary</t>
+  </si>
+  <si>
+    <t>adyan.kulal</t>
+  </si>
+  <si>
+    <t>deepakcv</t>
+  </si>
+  <si>
+    <t>nisargampatil</t>
+  </si>
+  <si>
+    <t>shravanbangera</t>
+  </si>
+  <si>
+    <t>rifaaysha</t>
+  </si>
+  <si>
+    <t>lenwickmathais</t>
+  </si>
+  <si>
+    <t>kumara</t>
+  </si>
+  <si>
+    <t>chetanpatil</t>
+  </si>
+  <si>
+    <t>raksha</t>
+  </si>
+  <si>
+    <t>msayeemahmed</t>
   </si>
   <si>
     <t>krithikadevadiga</t>
   </si>
   <si>
-    <t>DhanviniK.R</t>
-  </si>
-  <si>
-    <t>Seiashibu</t>
-  </si>
-  <si>
-    <t>Krithiyshetty</t>
-  </si>
-  <si>
-    <t>Zayaaan</t>
-  </si>
-  <si>
-    <t>AshishvShetty</t>
-  </si>
-  <si>
-    <t>N.Suhanammanna</t>
-  </si>
-  <si>
-    <t>NRADHESHSHETTY</t>
-  </si>
-  <si>
-    <t>AnaghaBharadwaj</t>
-  </si>
-  <si>
-    <t>VivekRHiretanad</t>
-  </si>
-  <si>
-    <t>Kadithyajenni</t>
-  </si>
-  <si>
-    <t>Sharan.S.Shetty</t>
-  </si>
-  <si>
-    <t>Ashok</t>
-  </si>
-  <si>
-    <t>YashaswiniHS</t>
-  </si>
-  <si>
-    <t>Tanmay</t>
-  </si>
-  <si>
-    <t>Devika.s</t>
-  </si>
-  <si>
-    <t>Vaishnavi</t>
-  </si>
-  <si>
-    <t>AkshathH.P</t>
-  </si>
-  <si>
-    <t>SushreePrabhu</t>
-  </si>
-  <si>
-    <t>Anushakarkera</t>
-  </si>
-  <si>
-    <t>Shreyashegadeyb</t>
-  </si>
-  <si>
-    <t>Vybhav</t>
-  </si>
-  <si>
-    <t>Dhanya</t>
-  </si>
-  <si>
-    <t>SameeyaBanu</t>
-  </si>
-  <si>
-    <t>ManishPM</t>
-  </si>
-  <si>
-    <t>Joicymathias</t>
-  </si>
-  <si>
-    <t>Rachana.N</t>
-  </si>
-  <si>
-    <t>RakeshNJ</t>
-  </si>
-  <si>
-    <t>Chinmayshetti</t>
-  </si>
-  <si>
-    <t>Meetha</t>
-  </si>
-  <si>
-    <t>DrithiShetty</t>
-  </si>
-  <si>
-    <t>Vipul</t>
-  </si>
-  <si>
-    <t>Palguni</t>
+    <t>dhanvinik.r</t>
+  </si>
+  <si>
+    <t>seiashibu</t>
+  </si>
+  <si>
+    <t>krithiyshetty</t>
+  </si>
+  <si>
+    <t>zayaaan</t>
+  </si>
+  <si>
+    <t>ashishvshetty</t>
+  </si>
+  <si>
+    <t>n.suhanammanna</t>
+  </si>
+  <si>
+    <t>nradheshshetty</t>
+  </si>
+  <si>
+    <t>anaghabharadwaj</t>
+  </si>
+  <si>
+    <t>vivekrhiretanad</t>
+  </si>
+  <si>
+    <t>kadithyajenni</t>
+  </si>
+  <si>
+    <t>sharan.s.shetty</t>
+  </si>
+  <si>
+    <t>ashok</t>
+  </si>
+  <si>
+    <t>yashaswinihs</t>
+  </si>
+  <si>
+    <t>tanmay</t>
+  </si>
+  <si>
+    <t>devika.s</t>
+  </si>
+  <si>
+    <t>vaishnavi</t>
+  </si>
+  <si>
+    <t>akshathh.p</t>
+  </si>
+  <si>
+    <t>sushreeprabhu</t>
+  </si>
+  <si>
+    <t>anushakarkera</t>
+  </si>
+  <si>
+    <t>shreyashegadeyb</t>
+  </si>
+  <si>
+    <t>vybhav</t>
+  </si>
+  <si>
+    <t>dhanya</t>
+  </si>
+  <si>
+    <t>sameeyabanu</t>
+  </si>
+  <si>
+    <t>manishpm</t>
+  </si>
+  <si>
+    <t>joicymathias</t>
+  </si>
+  <si>
+    <t>rachana.n</t>
+  </si>
+  <si>
+    <t>rakeshnj</t>
+  </si>
+  <si>
+    <t>chinmayshetti</t>
+  </si>
+  <si>
+    <t>meetha</t>
+  </si>
+  <si>
+    <t>drithishetty</t>
+  </si>
+  <si>
+    <t>vipul</t>
+  </si>
+  <si>
+    <t>palguni</t>
   </si>
   <si>
     <t>abdulrehman</t>
   </si>
   <si>
-    <t>Shashankks</t>
-  </si>
-  <si>
-    <t>Preethi</t>
-  </si>
-  <si>
-    <t>Shivak</t>
+    <t>shashankks</t>
+  </si>
+  <si>
+    <t>preethi</t>
+  </si>
+  <si>
+    <t>shivak</t>
   </si>
   <si>
     <t>2nd PUC</t>
@@ -986,6 +986,9 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -1000,6 +1003,9 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -1014,6 +1020,9 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1028,6 +1037,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1042,6 +1054,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -1056,6 +1071,9 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -1070,6 +1088,9 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1084,6 +1105,9 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1098,6 +1122,9 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -1112,6 +1139,9 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -1126,6 +1156,9 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -1140,6 +1173,9 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -1154,6 +1190,9 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1168,6 +1207,9 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1182,6 +1224,9 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1196,6 +1241,9 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
@@ -1210,6 +1258,9 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -1224,6 +1275,9 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1238,6 +1292,9 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -1252,6 +1309,9 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -1266,6 +1326,9 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1280,6 +1343,9 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1294,6 +1360,9 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1308,6 +1377,9 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -1322,6 +1394,9 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
@@ -1336,6 +1411,9 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1350,6 +1428,9 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
@@ -1364,6 +1445,9 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
@@ -1378,6 +1462,9 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -1392,6 +1479,9 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
@@ -1406,6 +1496,9 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -1420,6 +1513,9 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
@@ -1434,6 +1530,9 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
@@ -1448,6 +1547,9 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
@@ -1462,6 +1564,9 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -1476,6 +1581,9 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
@@ -1490,6 +1598,9 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
@@ -1504,6 +1615,9 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
@@ -1518,6 +1632,9 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -1532,6 +1649,9 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
@@ -1546,6 +1666,9 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -1560,6 +1683,9 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -1574,6 +1700,9 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
@@ -1588,6 +1717,9 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
@@ -1602,6 +1734,9 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
@@ -1616,6 +1751,9 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
       <c r="C47" t="s">
         <v>49</v>
       </c>
@@ -1630,6 +1768,9 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
@@ -1644,6 +1785,9 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
@@ -1658,6 +1802,9 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
@@ -1672,6 +1819,9 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
       <c r="C51" t="s">
         <v>53</v>
       </c>
@@ -1686,6 +1836,9 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -1700,6 +1853,9 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
       <c r="C53" t="s">
         <v>55</v>
       </c>
@@ -1714,6 +1870,9 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
       <c r="C54" t="s">
         <v>56</v>
       </c>
@@ -1728,6 +1887,9 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
       <c r="C55" t="s">
         <v>57</v>
       </c>
@@ -1742,6 +1904,9 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
       <c r="C56" t="s">
         <v>58</v>
       </c>
@@ -1756,6 +1921,9 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
       <c r="C57" t="s">
         <v>59</v>
       </c>
@@ -1770,6 +1938,9 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
       <c r="C58" t="s">
         <v>60</v>
       </c>
@@ -1784,6 +1955,9 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
       <c r="C59" t="s">
         <v>61</v>
       </c>
@@ -1798,6 +1972,9 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
       <c r="C60" t="s">
         <v>62</v>
       </c>
@@ -1812,6 +1989,9 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
       <c r="C61" t="s">
         <v>63</v>
       </c>
@@ -1826,6 +2006,9 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
@@ -1840,6 +2023,9 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
       <c r="C63" t="s">
         <v>65</v>
       </c>
@@ -1854,6 +2040,9 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
       <c r="C64" t="s">
         <v>66</v>
       </c>
@@ -1868,6 +2057,9 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
       <c r="C65" t="s">
         <v>67</v>
       </c>
@@ -1882,6 +2074,9 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
       <c r="C66" t="s">
         <v>68</v>
       </c>
@@ -1896,6 +2091,9 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
       <c r="C67" t="s">
         <v>69</v>
       </c>
@@ -1910,6 +2108,9 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
       <c r="C68" t="s">
         <v>70</v>
       </c>
@@ -1924,6 +2125,9 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
       <c r="C69" t="s">
         <v>71</v>
       </c>
@@ -1938,6 +2142,9 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
       <c r="C70" t="s">
         <v>72</v>
       </c>
@@ -1952,6 +2159,9 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
       <c r="C71" t="s">
         <v>73</v>
       </c>
@@ -1966,6 +2176,9 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
       <c r="C72" t="s">
         <v>74</v>
       </c>
@@ -1980,6 +2193,9 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
       <c r="C73" t="s">
         <v>75</v>
       </c>
@@ -1994,6 +2210,9 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
       <c r="C74" t="s">
         <v>76</v>
       </c>
@@ -2008,6 +2227,9 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
       <c r="C75" t="s">
         <v>77</v>
       </c>
@@ -2022,6 +2244,9 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
       <c r="C76" t="s">
         <v>78</v>
       </c>
@@ -2036,6 +2261,9 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
       <c r="C77" t="s">
         <v>79</v>
       </c>
@@ -2050,6 +2278,9 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
@@ -2064,6 +2295,9 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
@@ -2078,6 +2312,9 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
@@ -2092,6 +2329,9 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
@@ -2106,6 +2346,9 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
       <c r="C82" t="s">
         <v>84</v>
       </c>
@@ -2120,6 +2363,9 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
@@ -2134,6 +2380,9 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
       <c r="C84" t="s">
         <v>86</v>
       </c>
@@ -2148,6 +2397,9 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
       <c r="C85" t="s">
         <v>87</v>
       </c>
@@ -2162,6 +2414,9 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
       <c r="C86" t="s">
         <v>88</v>
       </c>
@@ -2176,6 +2431,9 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
       <c r="C87" t="s">
         <v>89</v>
       </c>
@@ -2190,6 +2448,9 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
       <c r="C88" t="s">
         <v>90</v>
       </c>
@@ -2204,6 +2465,9 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
       <c r="C89" t="s">
         <v>91</v>
       </c>
@@ -2218,6 +2482,9 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
@@ -2232,6 +2499,9 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
@@ -2246,6 +2516,9 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
       <c r="C92" t="s">
         <v>94</v>
       </c>
@@ -2260,6 +2533,9 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
@@ -2274,6 +2550,9 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
       <c r="C94" t="s">
         <v>96</v>
       </c>
@@ -2288,6 +2567,9 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
@@ -2302,6 +2584,9 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
       <c r="C96" t="s">
         <v>98</v>
       </c>
@@ -2316,6 +2601,9 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
@@ -2330,6 +2618,9 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
       <c r="C98" t="s">
         <v>100</v>
       </c>
@@ -2344,6 +2635,9 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
       <c r="C99" t="s">
         <v>101</v>
       </c>
@@ -2358,6 +2652,9 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
       <c r="C100" t="s">
         <v>102</v>
       </c>
@@ -2372,6 +2669,9 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
       <c r="C101" t="s">
         <v>103</v>
       </c>
@@ -2386,6 +2686,9 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
       <c r="C102" t="s">
         <v>104</v>
       </c>
@@ -2400,6 +2703,9 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
       <c r="C103" t="s">
         <v>105</v>
       </c>
@@ -2414,6 +2720,9 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
       <c r="C104" t="s">
         <v>106</v>
       </c>
@@ -2428,6 +2737,9 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
       <c r="C105" t="s">
         <v>107</v>
       </c>
@@ -2442,6 +2754,9 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
       <c r="C106" t="s">
         <v>108</v>
       </c>
@@ -2456,6 +2771,9 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
       <c r="C107" t="s">
         <v>109</v>
       </c>
@@ -2470,6 +2788,9 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
       <c r="C108" t="s">
         <v>110</v>
       </c>
@@ -2484,6 +2805,9 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
       <c r="C109" t="s">
         <v>111</v>
       </c>
@@ -2498,6 +2822,9 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
       <c r="C110" t="s">
         <v>112</v>
       </c>
@@ -2512,6 +2839,9 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
       <c r="C111" t="s">
         <v>113</v>
       </c>
@@ -2526,6 +2856,9 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
       <c r="C112" t="s">
         <v>114</v>
       </c>
@@ -2540,6 +2873,9 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
+      <c r="B113">
+        <v>9</v>
+      </c>
       <c r="C113" t="s">
         <v>115</v>
       </c>
@@ -2554,6 +2890,9 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
       <c r="C114" t="s">
         <v>116</v>
       </c>
@@ -2568,6 +2907,9 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
       <c r="C115" t="s">
         <v>117</v>
       </c>
@@ -2582,6 +2924,9 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
       <c r="C116" t="s">
         <v>118</v>
       </c>
@@ -2596,6 +2941,9 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
       <c r="C117" t="s">
         <v>119</v>
       </c>
@@ -2610,6 +2958,9 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
       <c r="C118" t="s">
         <v>120</v>
       </c>
@@ -2624,6 +2975,9 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
       <c r="C119" t="s">
         <v>121</v>
       </c>
@@ -2638,6 +2992,9 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
       <c r="C120" t="s">
         <v>122</v>
       </c>
@@ -2652,6 +3009,9 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
       <c r="C121" t="s">
         <v>123</v>
       </c>
@@ -2666,6 +3026,9 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
       <c r="C122" t="s">
         <v>124</v>
       </c>
@@ -2680,6 +3043,9 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
       <c r="C123" t="s">
         <v>125</v>
       </c>
@@ -2694,6 +3060,9 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
       <c r="C124" t="s">
         <v>126</v>
       </c>
@@ -2708,6 +3077,9 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
       <c r="C125" t="s">
         <v>127</v>
       </c>
@@ -2722,6 +3094,9 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
       <c r="C126" t="s">
         <v>128</v>
       </c>
@@ -2736,6 +3111,9 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
       <c r="C127" t="s">
         <v>129</v>
       </c>
@@ -2750,6 +3128,9 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
       <c r="C128" t="s">
         <v>130</v>
       </c>
@@ -2764,6 +3145,9 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
       <c r="C129" t="s">
         <v>131</v>
       </c>
@@ -2778,6 +3162,9 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
       <c r="C130" t="s">
         <v>132</v>
       </c>
@@ -2792,6 +3179,9 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
       <c r="C131" t="s">
         <v>133</v>
       </c>
@@ -2806,6 +3196,9 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
       <c r="C132" t="s">
         <v>134</v>
       </c>
@@ -2820,6 +3213,9 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
       <c r="C133" t="s">
         <v>95</v>
       </c>
@@ -2834,6 +3230,9 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
@@ -2848,6 +3247,9 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
@@ -2862,6 +3264,9 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
@@ -2876,6 +3281,9 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
       <c r="C137" t="s">
         <v>138</v>
       </c>
@@ -2890,6 +3298,9 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
       <c r="C138" t="s">
         <v>139</v>
       </c>
@@ -2904,6 +3315,9 @@
       <c r="A139" s="1">
         <v>138</v>
       </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
       <c r="C139" t="s">
         <v>140</v>
       </c>
@@ -2918,6 +3332,9 @@
       <c r="A140" s="1">
         <v>139</v>
       </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
       <c r="C140" t="s">
         <v>141</v>
       </c>
@@ -2932,6 +3349,9 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
       <c r="C141" t="s">
         <v>142</v>
       </c>
@@ -2946,6 +3366,9 @@
       <c r="A142" s="1">
         <v>141</v>
       </c>
+      <c r="B142">
+        <v>8</v>
+      </c>
       <c r="C142" t="s">
         <v>143</v>
       </c>
@@ -2960,6 +3383,9 @@
       <c r="A143" s="1">
         <v>142</v>
       </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
       <c r="C143" t="s">
         <v>144</v>
       </c>
@@ -2974,6 +3400,9 @@
       <c r="A144" s="1">
         <v>143</v>
       </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
       <c r="C144" t="s">
         <v>145</v>
       </c>
@@ -2988,6 +3417,9 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
       <c r="C145" t="s">
         <v>146</v>
       </c>
@@ -3002,6 +3434,9 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
       <c r="C146" t="s">
         <v>147</v>
       </c>
@@ -3016,6 +3451,9 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
       <c r="C147" t="s">
         <v>148</v>
       </c>
@@ -3030,6 +3468,9 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
       <c r="C148" t="s">
         <v>149</v>
       </c>
@@ -3044,6 +3485,9 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
+      <c r="B149">
+        <v>10</v>
+      </c>
       <c r="C149" t="s">
         <v>150</v>
       </c>
@@ -3058,6 +3502,9 @@
       <c r="A150" s="1">
         <v>149</v>
       </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
       <c r="C150" t="s">
         <v>151</v>
       </c>
@@ -3072,6 +3519,9 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
       <c r="C151" t="s">
         <v>152</v>
       </c>
@@ -3086,6 +3536,9 @@
       <c r="A152" s="1">
         <v>151</v>
       </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
       <c r="C152" t="s">
         <v>153</v>
       </c>
@@ -3100,6 +3553,9 @@
       <c r="A153" s="1">
         <v>152</v>
       </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
       <c r="C153" t="s">
         <v>154</v>
       </c>
@@ -3114,6 +3570,9 @@
       <c r="A154" s="1">
         <v>153</v>
       </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
@@ -3128,6 +3587,9 @@
       <c r="A155" s="1">
         <v>154</v>
       </c>
+      <c r="B155">
+        <v>8</v>
+      </c>
       <c r="C155" t="s">
         <v>156</v>
       </c>
@@ -3142,6 +3604,9 @@
       <c r="A156" s="1">
         <v>155</v>
       </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
       <c r="C156" t="s">
         <v>157</v>
       </c>
@@ -3156,6 +3621,9 @@
       <c r="A157" s="1">
         <v>156</v>
       </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
       <c r="C157" t="s">
         <v>158</v>
       </c>
@@ -3170,6 +3638,9 @@
       <c r="A158" s="1">
         <v>157</v>
       </c>
+      <c r="B158">
+        <v>8</v>
+      </c>
       <c r="C158" t="s">
         <v>159</v>
       </c>
@@ -3184,6 +3655,9 @@
       <c r="A159" s="1">
         <v>159</v>
       </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
       <c r="C159" t="s">
         <v>160</v>
       </c>
@@ -3198,6 +3672,9 @@
       <c r="A160" s="1">
         <v>160</v>
       </c>
+      <c r="B160">
+        <v>9</v>
+      </c>
       <c r="C160" t="s">
         <v>161</v>
       </c>
@@ -3212,6 +3689,9 @@
       <c r="A161" s="1">
         <v>161</v>
       </c>
+      <c r="B161">
+        <v>8</v>
+      </c>
       <c r="C161" t="s">
         <v>162</v>
       </c>
@@ -3226,6 +3706,9 @@
       <c r="A162" s="1">
         <v>162</v>
       </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
       <c r="C162" t="s">
         <v>163</v>
       </c>
@@ -3240,6 +3723,9 @@
       <c r="A163" s="1">
         <v>163</v>
       </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
       <c r="C163" t="s">
         <v>164</v>
       </c>
@@ -3254,6 +3740,9 @@
       <c r="A164" s="1">
         <v>164</v>
       </c>
+      <c r="B164">
+        <v>8</v>
+      </c>
       <c r="C164" t="s">
         <v>165</v>
       </c>
@@ -3268,6 +3757,9 @@
       <c r="A165" s="1">
         <v>165</v>
       </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
       <c r="C165" t="s">
         <v>166</v>
       </c>
@@ -3282,6 +3774,9 @@
       <c r="A166" s="1">
         <v>166</v>
       </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
       <c r="C166" t="s">
         <v>167</v>
       </c>
@@ -3296,6 +3791,9 @@
       <c r="A167" s="1">
         <v>167</v>
       </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
       <c r="C167" t="s">
         <v>168</v>
       </c>
@@ -3310,6 +3808,9 @@
       <c r="A168" s="1">
         <v>168</v>
       </c>
+      <c r="B168">
+        <v>8</v>
+      </c>
       <c r="C168" t="s">
         <v>169</v>
       </c>
@@ -3324,6 +3825,9 @@
       <c r="A169" s="1">
         <v>169</v>
       </c>
+      <c r="B169">
+        <v>7</v>
+      </c>
       <c r="C169" t="s">
         <v>170</v>
       </c>
@@ -3338,6 +3842,9 @@
       <c r="A170" s="1">
         <v>170</v>
       </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
       <c r="C170" t="s">
         <v>171</v>
       </c>
@@ -3352,6 +3859,9 @@
       <c r="A171" s="1">
         <v>171</v>
       </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
       <c r="C171" t="s">
         <v>172</v>
       </c>
@@ -3366,6 +3876,9 @@
       <c r="A172" s="1">
         <v>173</v>
       </c>
+      <c r="B172">
+        <v>8</v>
+      </c>
       <c r="C172" t="s">
         <v>173</v>
       </c>
@@ -3380,6 +3893,9 @@
       <c r="A173" s="1">
         <v>174</v>
       </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
       <c r="C173" t="s">
         <v>174</v>
       </c>
@@ -3394,6 +3910,9 @@
       <c r="A174" s="1">
         <v>175</v>
       </c>
+      <c r="B174">
+        <v>9</v>
+      </c>
       <c r="C174" t="s">
         <v>175</v>
       </c>
@@ -3408,6 +3927,9 @@
       <c r="A175" s="1">
         <v>176</v>
       </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
       <c r="C175" t="s">
         <v>176</v>
       </c>
@@ -3422,6 +3944,9 @@
       <c r="A176" s="1">
         <v>177</v>
       </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
       <c r="C176" t="s">
         <v>177</v>
       </c>
@@ -3436,6 +3961,9 @@
       <c r="A177" s="1">
         <v>178</v>
       </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
       <c r="C177" t="s">
         <v>178</v>
       </c>
@@ -3450,6 +3978,9 @@
       <c r="A178" s="1">
         <v>179</v>
       </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
       <c r="C178" t="s">
         <v>179</v>
       </c>
@@ -3464,6 +3995,9 @@
       <c r="A179" s="1">
         <v>180</v>
       </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
       <c r="C179" t="s">
         <v>180</v>
       </c>
@@ -3478,6 +4012,9 @@
       <c r="A180" s="1">
         <v>181</v>
       </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
       <c r="C180" t="s">
         <v>181</v>
       </c>
@@ -3492,6 +4029,9 @@
       <c r="A181" s="1">
         <v>182</v>
       </c>
+      <c r="B181">
+        <v>6</v>
+      </c>
       <c r="C181" t="s">
         <v>182</v>
       </c>
@@ -3506,6 +4046,9 @@
       <c r="A182" s="1">
         <v>183</v>
       </c>
+      <c r="B182">
+        <v>7</v>
+      </c>
       <c r="C182" t="s">
         <v>183</v>
       </c>
@@ -3520,6 +4063,9 @@
       <c r="A183" s="1">
         <v>184</v>
       </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
       <c r="C183" t="s">
         <v>184</v>
       </c>
@@ -3534,6 +4080,9 @@
       <c r="A184" s="1">
         <v>185</v>
       </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
       <c r="C184" t="s">
         <v>185</v>
       </c>
@@ -3548,6 +4097,9 @@
       <c r="A185" s="1">
         <v>186</v>
       </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
       <c r="C185" t="s">
         <v>186</v>
       </c>
@@ -3562,6 +4114,9 @@
       <c r="A186" s="1">
         <v>187</v>
       </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
       <c r="C186" t="s">
         <v>187</v>
       </c>
@@ -3576,6 +4131,9 @@
       <c r="A187" s="1">
         <v>188</v>
       </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
       <c r="C187" t="s">
         <v>188</v>
       </c>
@@ -3590,6 +4148,9 @@
       <c r="A188" s="1">
         <v>189</v>
       </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
       <c r="C188" t="s">
         <v>189</v>
       </c>
@@ -3604,6 +4165,9 @@
       <c r="A189" s="1">
         <v>190</v>
       </c>
+      <c r="B189">
+        <v>9</v>
+      </c>
       <c r="C189" t="s">
         <v>190</v>
       </c>
@@ -3617,6 +4181,9 @@
     <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>191</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
       </c>
       <c r="C190" t="s">
         <v>191</v>
